--- a/02_Duc/Duc_Note/Graduation.xlsx
+++ b/02_Duc/Duc_Note/Graduation.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duckn\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duckn\OneDrive\Desktop\Graduation\mobi-ros\02_Duc\Duc_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C091E2AE-6E7C-4C2D-B6F4-53C74C722F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09F6FEE-4627-4169-BE6E-957D0B450163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C998E750-FC4D-42A1-A394-7F85B9BE8500}"/>
+    <workbookView xWindow="22932" yWindow="-1836" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{C998E750-FC4D-42A1-A394-7F85B9BE8500}"/>
   </bookViews>
   <sheets>
     <sheet name="17_07_2023" sheetId="1" r:id="rId1"/>
     <sheet name="18_07_2023_DATN" sheetId="2" r:id="rId2"/>
+    <sheet name="24_07_2023" sheetId="3" r:id="rId3"/>
+    <sheet name="31_07_2023" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">- Lọc bộ dữ liệu -&gt; Lấy được data của hai vị trí -&gt; </t>
   </si>
@@ -91,6 +93,18 @@
   </si>
   <si>
     <t>Data 1_17_07_2023</t>
+  </si>
+  <si>
+    <t>Thắc mắc liệu cách này có đúng không -&gt; Thử</t>
+  </si>
+  <si>
+    <t>- Hardness tới -&gt; Không phải để né tránh mà là để tìm ra cách đối ứng thích hợp và hợp lí nhất !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Output: Tìm ra tại sao mình phải lọc bộ dữ liệu này ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">? Hướng tiếp cận ? </t>
   </si>
 </sst>
 </file>
@@ -98,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -177,19 +191,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -267,7 +285,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241925</xdr:colOff>
+      <xdr:colOff>238115</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
@@ -311,7 +329,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>240884</xdr:colOff>
+      <xdr:colOff>237074</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>111333</xdr:rowOff>
     </xdr:to>
@@ -758,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2CB877-F293-45A2-88DA-49009A0F51F4}">
   <dimension ref="A2:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -782,8 +800,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -867,48 +885,50 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
     </row>
-    <row r="110" spans="1:1" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>12</v>
       </c>
@@ -929,8 +949,73 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H97:I97"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E0BD20-E82D-4DCB-9633-F4F9A5AC5547}">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B886D5-8DDE-4559-B65A-C86989F61555}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>